--- a/UK_PRICE_DATA.xlsx
+++ b/UK_PRICE_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\IIFYM\If_it_fits_your_maccies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC8830B-E34E-40FD-B7DA-EA8F700C8BCA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F91A37B-900F-46B9-9903-607F49EB6A6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18255" windowHeight="8355" firstSheet="1" activeTab="1" xr2:uid="{A0D64C8D-A6AD-41FB-8EE0-EB2CE125969D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18258" windowHeight="8358" firstSheet="1" activeTab="1" xr2:uid="{A0D64C8D-A6AD-41FB-8EE0-EB2CE125969D}"/>
   </bookViews>
   <sheets>
     <sheet name="RawPrices" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1234,13 +1234,13 @@
       <selection activeCell="A114" sqref="A114:XFD126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41.68359375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26171875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1" thickBot="1">
@@ -2930,31 +2930,31 @@
   <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A120" sqref="A120"/>
-      <selection pane="bottomLeft" activeCell="J101" sqref="J101"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.41796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.15625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83984375" customWidth="1"/>
+    <col min="13" max="13" width="13.578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.578125" customWidth="1"/>
+    <col min="15" max="15" width="10.68359375" customWidth="1"/>
+    <col min="16" max="16" width="13.578125" customWidth="1"/>
+    <col min="17" max="17" width="10.41796875" customWidth="1"/>
+    <col min="18" max="18" width="11.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -3985,7 +3985,7 @@
         <v>Dessert</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.75" thickBot="1">
+    <row r="24" spans="1:18" ht="14.7" thickBot="1">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" ht="15">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>Happy Meal</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="15.75" thickBot="1">
+    <row r="86" spans="1:18" ht="14.7" thickBot="1">
       <c r="A86" t="s">
         <v>209</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>DRINK</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" ht="15">
       <c r="A87" s="9" t="s">
         <v>56</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="15.75" thickBot="1">
+    <row r="99" spans="1:18" ht="14.7" thickBot="1">
       <c r="A99" t="s">
         <v>180</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="15.75" thickBot="1">
+    <row r="100" spans="1:18" ht="15.3" thickBot="1">
       <c r="A100" t="s">
         <v>212</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="15.75" thickBot="1">
+    <row r="101" spans="1:18" ht="15.3" thickBot="1">
       <c r="A101" t="s">
         <v>213</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="15.75" thickBot="1">
+    <row r="102" spans="1:18" ht="15.3" thickBot="1">
       <c r="A102" t="s">
         <v>214</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="15.75" thickBot="1">
+    <row r="103" spans="1:18" ht="15.3" thickBot="1">
       <c r="A103" t="s">
         <v>215</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="15.75" thickBot="1">
+    <row r="104" spans="1:18" ht="15.3" thickBot="1">
       <c r="A104" t="s">
         <v>216</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" ht="15">
       <c r="A105" t="s">
         <v>52</v>
       </c>
@@ -7836,7 +7836,7 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="B1" s="8" t="s">
